--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/121.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/121.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3547800500123497</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.770682406854404</v>
+        <v>-1.616151074431486</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1218631040983694</v>
+        <v>-0.1482159467786227</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01262501504525415</v>
+        <v>0.0742282232381615</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3548806184326856</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.748347721592567</v>
+        <v>-1.859593593507352</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1532947562539038</v>
+        <v>-0.2442314894743322</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001035302345687552</v>
+        <v>0.04217506191302081</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3609216253924836</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.808446255475937</v>
+        <v>-1.945940673635251</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1957580436897803</v>
+        <v>-0.3368808799550692</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03323126111537184</v>
+        <v>-0.02789079566976584</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3649982537148411</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.835918912518699</v>
+        <v>-2.043644476764199</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1394715140360858</v>
+        <v>-0.2433050199663519</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005069927622375956</v>
+        <v>0.01801488406567674</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3541170174261328</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.857116095718401</v>
+        <v>-1.915839258475704</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.06319239451926668</v>
+        <v>-0.3006509818355578</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01731538105563127</v>
+        <v>-0.02906855249656634</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3195021481893857</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.601451986121857</v>
+        <v>-1.590356309170457</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1239245599795933</v>
+        <v>-0.0766149188524612</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.04053750090213683</v>
+        <v>0.006178763412703925</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2595168747917472</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.314447712471291</v>
+        <v>-1.364961952840242</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1464349023963338</v>
+        <v>-0.06794184682910381</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0007511553165075095</v>
+        <v>-0.02079436859580219</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1760602718227257</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8193427733590251</v>
+        <v>-1.013792804154427</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1593585116159484</v>
+        <v>0.04399384537108351</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06030868955960187</v>
+        <v>-0.1774903095004992</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.07433513314913315</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2015333825779077</v>
+        <v>-0.6201737862876234</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2109462123759759</v>
+        <v>0.1007811199003882</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0309336899260619</v>
+        <v>-0.1316334234191965</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.04426785015700854</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5062014929415898</v>
+        <v>-0.2758863725975564</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07731320202115317</v>
+        <v>0.08498112476922975</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02009776317677136</v>
+        <v>0.04089422849184988</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1830242048739611</v>
       </c>
       <c r="E12" t="n">
-        <v>1.33625596018291</v>
+        <v>0.4707962075770418</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1432127674672584</v>
+        <v>0.01765381102504189</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1786826284173572</v>
+        <v>0.1714020052990156</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3444970590349091</v>
       </c>
       <c r="E13" t="n">
-        <v>2.046891008520345</v>
+        <v>0.8677673494832525</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2128022770015048</v>
+        <v>0.1088887954564001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2548208562578475</v>
+        <v>0.2374198193502254</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5301347645751191</v>
       </c>
       <c r="E14" t="n">
-        <v>2.826744124699886</v>
+        <v>1.334603075148923</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.514019532182331</v>
+        <v>-0.2609207489521894</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4270947811673667</v>
+        <v>0.4907833081540756</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.739014297537441</v>
       </c>
       <c r="E15" t="n">
-        <v>3.712636829897491</v>
+        <v>2.009078976165349</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9090993100699459</v>
+        <v>-0.6344666674265375</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5609412637590513</v>
+        <v>0.5166323563553351</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9626519298593044</v>
       </c>
       <c r="E16" t="n">
-        <v>4.514464168218912</v>
+        <v>2.844046354457875</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.166387028507993</v>
+        <v>-0.9718424600076955</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7281796835613384</v>
+        <v>0.6157316579926828</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.189039967086861</v>
       </c>
       <c r="E17" t="n">
-        <v>5.09468170800934</v>
+        <v>3.198738404972587</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.460627401067498</v>
+        <v>-1.137618290027141</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8727418625228097</v>
+        <v>0.6165959155916347</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.4068226366112</v>
       </c>
       <c r="E18" t="n">
-        <v>5.631810791670223</v>
+        <v>3.845392164398474</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.764445358013978</v>
+        <v>-1.358405915485877</v>
       </c>
       <c r="G18" t="n">
-        <v>1.020326198437568</v>
+        <v>0.6787279250112827</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.610187730536357</v>
       </c>
       <c r="E19" t="n">
-        <v>5.975188813631259</v>
+        <v>4.08234146794968</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.160046618080213</v>
+        <v>-1.71013253167024</v>
       </c>
       <c r="G19" t="n">
-        <v>1.204274615020721</v>
+        <v>0.9560381194256152</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.802956067976058</v>
       </c>
       <c r="E20" t="n">
-        <v>6.170535427821481</v>
+        <v>4.513695668166209</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.561217673766511</v>
+        <v>-1.899980101038901</v>
       </c>
       <c r="G20" t="n">
-        <v>1.411148120080804</v>
+        <v>1.131614154879048</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.985317255549048</v>
       </c>
       <c r="E21" t="n">
-        <v>6.417811908271386</v>
+        <v>4.930575230882154</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.843378567323021</v>
+        <v>-2.16802011108734</v>
       </c>
       <c r="G21" t="n">
-        <v>1.52998811434178</v>
+        <v>1.305884960084241</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.14857851719013</v>
       </c>
       <c r="E22" t="n">
-        <v>6.507050622327747</v>
+        <v>5.189435324824857</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.20632924876124</v>
+        <v>-2.585806625849609</v>
       </c>
       <c r="G22" t="n">
-        <v>1.652872492610271</v>
+        <v>1.226994160229586</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.286390807895582</v>
       </c>
       <c r="E23" t="n">
-        <v>6.54227110172724</v>
+        <v>5.369662005438494</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.563859870105537</v>
+        <v>-2.75549936645513</v>
       </c>
       <c r="G23" t="n">
-        <v>1.751646096606236</v>
+        <v>1.49022067629713</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.393730471939563</v>
       </c>
       <c r="E24" t="n">
-        <v>6.572847645093974</v>
+        <v>5.509248451519055</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.704044343409649</v>
+        <v>-2.903030639271011</v>
       </c>
       <c r="G24" t="n">
-        <v>1.845700134405523</v>
+        <v>1.632714614243748</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.468273636123901</v>
       </c>
       <c r="E25" t="n">
-        <v>6.549778005416655</v>
+        <v>5.746745463837981</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.892662617654325</v>
+        <v>-3.094168190870994</v>
       </c>
       <c r="G25" t="n">
-        <v>1.916361884489493</v>
+        <v>1.656978478606139</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.511938622905428</v>
       </c>
       <c r="E26" t="n">
-        <v>6.423957469010299</v>
+        <v>5.600829260974129</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.921916243073192</v>
+        <v>-3.201643838122461</v>
       </c>
       <c r="G26" t="n">
-        <v>1.978166976426404</v>
+        <v>1.748046344772069</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.52397220760827</v>
       </c>
       <c r="E27" t="n">
-        <v>6.301140182016249</v>
+        <v>5.647238125267889</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.933485523430087</v>
+        <v>-3.180205126334767</v>
       </c>
       <c r="G27" t="n">
-        <v>1.922650166666765</v>
+        <v>1.689440286784701</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.504803052461611</v>
       </c>
       <c r="E28" t="n">
-        <v>6.092913262974462</v>
+        <v>5.613660772171555</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.86865827453989</v>
+        <v>-3.185459288004613</v>
       </c>
       <c r="G28" t="n">
-        <v>1.870234803548391</v>
+        <v>1.706110638721579</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.456702907693002</v>
       </c>
       <c r="E29" t="n">
-        <v>5.834909497661913</v>
+        <v>5.487815838938128</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.855489477208222</v>
+        <v>-3.251664042743246</v>
       </c>
       <c r="G29" t="n">
-        <v>1.838025502530003</v>
+        <v>1.68805820653119</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.380465363278234</v>
       </c>
       <c r="E30" t="n">
-        <v>5.701334429771381</v>
+        <v>5.482574180642155</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.705245887142843</v>
+        <v>-3.119129499527247</v>
       </c>
       <c r="G30" t="n">
-        <v>1.748964885311251</v>
+        <v>1.616937186177629</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.279094710551434</v>
       </c>
       <c r="E31" t="n">
-        <v>5.471110111601999</v>
+        <v>5.324072874534284</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.577030802159573</v>
+        <v>-3.128728736098246</v>
       </c>
       <c r="G31" t="n">
-        <v>1.562349285608678</v>
+        <v>1.440767087985044</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.157791369362836</v>
       </c>
       <c r="E32" t="n">
-        <v>5.068201391907645</v>
+        <v>4.934661699416365</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.369856606205853</v>
+        <v>-3.101919367791447</v>
       </c>
       <c r="G32" t="n">
-        <v>1.421474687058826</v>
+        <v>1.410909031175519</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.02044287070303</v>
       </c>
       <c r="E33" t="n">
-        <v>4.690786136660008</v>
+        <v>4.600406870938127</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.297527637951993</v>
+        <v>-3.159605970358617</v>
       </c>
       <c r="G33" t="n">
-        <v>1.272925456633452</v>
+        <v>1.234232088900556</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.874425798515701</v>
       </c>
       <c r="E34" t="n">
-        <v>4.291610131507353</v>
+        <v>4.122446192128572</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.943925210726291</v>
+        <v>-2.794090267514333</v>
       </c>
       <c r="G34" t="n">
-        <v>1.129919795239042</v>
+        <v>1.061901441368099</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.725378006384752</v>
       </c>
       <c r="E35" t="n">
-        <v>3.973596270809562</v>
+        <v>3.890755624652287</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.819613008153532</v>
+        <v>-2.758677053180988</v>
       </c>
       <c r="G35" t="n">
-        <v>1.069770028018826</v>
+        <v>1.020952586972588</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.575239532763905</v>
       </c>
       <c r="E36" t="n">
-        <v>3.634601138831638</v>
+        <v>3.593209482024807</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.728771422558677</v>
+        <v>-2.528994954493234</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9797548849409634</v>
+        <v>0.9754647029007176</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.428853645029265</v>
       </c>
       <c r="E37" t="n">
-        <v>3.250309637874342</v>
+        <v>3.185387241358572</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.57974645400544</v>
+        <v>-2.551678514382171</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8641474702667528</v>
+        <v>0.9537210307746493</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.287226038845026</v>
       </c>
       <c r="E38" t="n">
-        <v>2.924808390948793</v>
+        <v>3.002073142279237</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.519683295521321</v>
+        <v>-2.407332247340269</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7798899783773924</v>
+        <v>0.9580722048825699</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.149548776370239</v>
       </c>
       <c r="E39" t="n">
-        <v>2.62732080070628</v>
+        <v>2.880692828399605</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.364804918233334</v>
+        <v>-2.327291137089268</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6422674768759605</v>
+        <v>0.7761218884364428</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.017709713220975</v>
       </c>
       <c r="E40" t="n">
-        <v>2.384224716574807</v>
+        <v>2.625676454561768</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.333154914475523</v>
+        <v>-2.314267500878666</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5726145355913324</v>
+        <v>0.7210869160114354</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.891439251632541</v>
       </c>
       <c r="E41" t="n">
-        <v>1.990020174858326</v>
+        <v>2.283258447745934</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.160365606594152</v>
+        <v>-2.078458139072302</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5196325561642587</v>
+        <v>0.6906988381338168</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7703947482155747</v>
       </c>
       <c r="E42" t="n">
-        <v>1.697211896047825</v>
+        <v>1.889981595378786</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.066145670370789</v>
+        <v>-2.146499669928962</v>
       </c>
       <c r="G42" t="n">
-        <v>0.482650625850317</v>
+        <v>0.6239552184772769</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6562374928611797</v>
       </c>
       <c r="E43" t="n">
-        <v>1.505366836462814</v>
+        <v>1.838046239833012</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.947889370197461</v>
+        <v>-1.819933501501809</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3810530891210093</v>
+        <v>0.5556880169702202</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5485441615900507</v>
       </c>
       <c r="E44" t="n">
-        <v>1.194253618301751</v>
+        <v>1.402787327443942</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.943437559177877</v>
+        <v>-1.804686094503785</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4516446983271528</v>
+        <v>0.6913630417507954</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4474781611338903</v>
       </c>
       <c r="E45" t="n">
-        <v>1.045239018400019</v>
+        <v>1.253458618393685</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.882619318895945</v>
+        <v>-1.804297575032696</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3731509568330614</v>
+        <v>0.5559667507194941</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3545888209886102</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8772253894175847</v>
+        <v>1.136472173069347</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.830984044323131</v>
+        <v>-1.756058948708692</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3261669373411283</v>
+        <v>0.4416578571660801</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2684883509698934</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7178464074558729</v>
+        <v>0.8934157337818619</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.784603236380502</v>
+        <v>-1.659064483326802</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2474694823410031</v>
+        <v>0.4227088415808714</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1889424650137197</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6035228758062169</v>
+        <v>0.8957187942572625</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.701429573533722</v>
+        <v>-1.595728490491254</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2262485122349079</v>
+        <v>0.4372194644013844</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1160327441126686</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5309612228141772</v>
+        <v>0.8248496711431986</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.634950659450891</v>
+        <v>-1.595038670205852</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1563863681581552</v>
+        <v>0.3814995510563889</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.04922506269180844</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4457827507029272</v>
+        <v>0.760124279006018</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.602577289770458</v>
+        <v>-1.551121331876608</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1096701038433144</v>
+        <v>0.3090001099733775</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.01110565302132989</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2728531610659038</v>
+        <v>0.5532123489432998</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.533038403652381</v>
+        <v>-1.454783141142898</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07195321911389124</v>
+        <v>0.2461563231239646</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.06529200205574698</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2355235759662157</v>
+        <v>0.5415890906065122</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.474046875797309</v>
+        <v>-1.450567979345893</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05079385099614762</v>
+        <v>0.1850575193307279</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1142223928213477</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1342980908497242</v>
+        <v>0.3252008229891594</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.426263860218836</v>
+        <v>-1.441988225186078</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04804127898198363</v>
+        <v>0.1683158066746704</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1579205226432328</v>
       </c>
       <c r="E54" t="n">
-        <v>0.03599229601282575</v>
+        <v>0.1235531182874537</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.449049886781467</v>
+        <v>-1.454143944273667</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.05003884520451807</v>
+        <v>0.1405949119164712</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.196501368094798</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0477222904680444</v>
+        <v>0.2004555767359093</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.396150856566431</v>
+        <v>-1.46526157836943</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.01503976701068426</v>
+        <v>0.1594591485276119</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2304676581962167</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.01531972060131162</v>
+        <v>0.1748736737910655</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.42449631009762</v>
+        <v>-1.418929564080941</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.06733253607303251</v>
+        <v>0.06820647639662793</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2602384822921299</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0692501266807284</v>
+        <v>0.05393494248140011</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.385894430466236</v>
+        <v>-1.40363458327013</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0590260263764007</v>
+        <v>0.1234622401066182</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2871663947095714</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.05898272200835159</v>
+        <v>-0.02729856269264348</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.353470437369632</v>
+        <v>-1.335492415501806</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1134675459829324</v>
+        <v>0.04521307680390289</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3122694526583563</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.06605231257253834</v>
+        <v>-0.003278056680274713</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.41479979117868</v>
+        <v>-1.45596638725579</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1025273988041024</v>
+        <v>0.08211815711257438</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3364414460980884</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.1250505495550547</v>
+        <v>-0.2009033345188269</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.471696851429799</v>
+        <v>-1.450990044454202</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1486398416489626</v>
+        <v>0.03979637127370338</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3614300933350644</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.08654015802518235</v>
+        <v>-0.2141282445527551</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.499190855696248</v>
+        <v>-1.402963670525707</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1208189198997767</v>
+        <v>0.07211423817255273</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3878597155619194</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.03075498316777472</v>
+        <v>-0.1958659996495647</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.512578004630191</v>
+        <v>-1.262994194260148</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1632065771717365</v>
+        <v>-0.007297433940044415</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4171655442739058</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.06978624695558995</v>
+        <v>-0.2173461860432779</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.584104622233789</v>
+        <v>-1.337415495395593</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1410969526396194</v>
+        <v>0.04089971777794062</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4501829755421423</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.0811533386081435</v>
+        <v>-0.3524405663395889</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.680886835220171</v>
+        <v>-1.433629872231922</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1281843219921862</v>
+        <v>0.01230602653131492</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4867027991795906</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.0262568181767578</v>
+        <v>-0.2535699849560217</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.78024840274852</v>
+        <v>-1.545774767224234</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1265997480739948</v>
+        <v>0.04278010322435488</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5267460551484111</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.02309193978511212</v>
+        <v>-0.3201092811858511</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.8950513320501</v>
+        <v>-1.650010820801154</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1632639097153508</v>
+        <v>-0.1169703204294965</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5700604563914579</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01872910117814871</v>
+        <v>-0.3201977196839796</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.929039161761886</v>
+        <v>-1.612855673015016</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1923296795657795</v>
+        <v>-0.12801293428202</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6151715830792167</v>
       </c>
       <c r="E68" t="n">
-        <v>0.02924718324866897</v>
+        <v>-0.3975643277674405</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.000826825415132</v>
+        <v>-1.665682122669519</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1762747375917404</v>
+        <v>-0.145542664452436</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6616132809258088</v>
       </c>
       <c r="E69" t="n">
-        <v>0.03476635545256215</v>
+        <v>-0.2375949425906366</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.030245739337398</v>
+        <v>-1.828096679839406</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1758227863702701</v>
+        <v>-0.1199302654737548</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.707635733262315</v>
       </c>
       <c r="E70" t="n">
-        <v>0.03126358100599805</v>
+        <v>-0.2213070109180797</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.07359890104065</v>
+        <v>-1.678693560466585</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1958123266300109</v>
+        <v>-0.09521140028650948</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7510910088728262</v>
       </c>
       <c r="E71" t="n">
-        <v>0.03007972497243007</v>
+        <v>-0.3552016772432274</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.197132234909202</v>
+        <v>-1.883712296748677</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2267017593039163</v>
+        <v>-0.1784905794103661</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7907835907307148</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00813355918168145</v>
+        <v>-0.2191777778355523</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.25349683440952</v>
+        <v>-1.965126338443038</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2589439960388489</v>
+        <v>-0.2765371579596466</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8244077715330901</v>
       </c>
       <c r="E73" t="n">
-        <v>0.111602942467929</v>
+        <v>-0.04611156596693733</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.243544758727022</v>
+        <v>-1.936543625768594</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2966206260036067</v>
+        <v>-0.3326968241125776</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.8490341737375385</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1481829350558938</v>
+        <v>-0.05680408535100753</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.355095590980181</v>
+        <v>-2.103668600325006</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3156452717527321</v>
+        <v>-0.3148859205101808</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8637343359761144</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1994717746843147</v>
+        <v>-0.102339543235664</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.32353585548253</v>
+        <v>-2.084857426812742</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.3125694417798917</v>
+        <v>-0.2855633740548411</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8671269400325592</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2952128530754876</v>
+        <v>0.1002944032003432</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.329042219352211</v>
+        <v>-2.0912798915389</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2797361919091902</v>
+        <v>-0.268259314534822</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8587705053312341</v>
       </c>
       <c r="E77" t="n">
-        <v>0.39612117944007</v>
+        <v>0.1104855677881265</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.286302027929091</v>
+        <v>-1.955390174680109</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3177147326089382</v>
+        <v>-0.2630938963234427</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.8389983897988439</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5145043431141612</v>
+        <v>0.2859896326017035</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.266795544845335</v>
+        <v>-1.993602924919728</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2749586832482226</v>
+        <v>-0.2400547526799615</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.8082771750852837</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6959240285715175</v>
+        <v>0.4999327282259732</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.173649069013048</v>
+        <v>-1.954642411930416</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2675786430595711</v>
+        <v>-0.2667479310978403</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7685108869766736</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7787475969498432</v>
+        <v>0.5111540488367841</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.19294817906671</v>
+        <v>-2.02651119503367</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.27626269365511</v>
+        <v>-0.2428744159685678</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7209240398000918</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9456261635528491</v>
+        <v>0.6837536713876867</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.078792985523837</v>
+        <v>-1.807960758617245</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2665167711613528</v>
+        <v>-0.2053630745072088</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6657794928504334</v>
       </c>
       <c r="E82" t="n">
-        <v>1.089732731768789</v>
+        <v>0.8718916330994229</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.115193661432837</v>
+        <v>-1.949862463586741</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1687159906448017</v>
+        <v>-0.1188647340514759</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6035013393100461</v>
       </c>
       <c r="E83" t="n">
-        <v>1.253018255665073</v>
+        <v>0.9823427783724055</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.042458181047925</v>
+        <v>-1.97053328524241</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2234764987652726</v>
+        <v>-0.1306435221608344</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5345392725282605</v>
       </c>
       <c r="E84" t="n">
-        <v>1.504261660196547</v>
+        <v>1.122741638794394</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.93903881125717</v>
+        <v>-1.712959514006968</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1779410408806161</v>
+        <v>-0.1754470752333933</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4589287846359646</v>
       </c>
       <c r="E85" t="n">
-        <v>1.667003744769847</v>
+        <v>1.285946653161347</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.820955118635363</v>
+        <v>-1.564634734390638</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1158407473361591</v>
+        <v>-0.2357816484186646</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3783116850714913</v>
       </c>
       <c r="E86" t="n">
-        <v>1.760230120210788</v>
+        <v>1.388781109023099</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653515425009748</v>
+        <v>-1.265116108294555</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1525561423143619</v>
+        <v>-0.2019694758617825</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2942353974912932</v>
       </c>
       <c r="E87" t="n">
-        <v>1.908980624459488</v>
+        <v>1.563876526983255</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.521568845326134</v>
+        <v>-1.20388007234905</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.07198013162985271</v>
+        <v>-0.1500078937269085</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2083675677959422</v>
       </c>
       <c r="E88" t="n">
-        <v>2.00044371922395</v>
+        <v>1.674622263943107</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.391241605039286</v>
+        <v>-1.129567947014743</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01129965741468062</v>
+        <v>-0.0006322207845416382</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1244819534025082</v>
       </c>
       <c r="E89" t="n">
-        <v>2.043505338843716</v>
+        <v>1.585212772097256</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.250345049345071</v>
+        <v>-0.8867780430629973</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01747327450472446</v>
+        <v>-0.09320415133933163</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04575797116565477</v>
       </c>
       <c r="E90" t="n">
-        <v>2.098317080301034</v>
+        <v>1.631397185581972</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.190838748438823</v>
+        <v>-0.968432393503997</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02135846921560959</v>
+        <v>-0.04065704535477944</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02496967769592429</v>
       </c>
       <c r="E91" t="n">
-        <v>2.095965226171494</v>
+        <v>1.585506143942772</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9357131987998475</v>
+        <v>-0.5490271492656392</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01470797016253332</v>
+        <v>-0.08262385735978307</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08374990661246011</v>
       </c>
       <c r="E92" t="n">
-        <v>2.08128016603743</v>
+        <v>1.503500479191965</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8038587171384221</v>
+        <v>-0.5250121325393612</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04973380885995949</v>
+        <v>-0.1386060365957803</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1291634973623891</v>
       </c>
       <c r="E93" t="n">
-        <v>2.075301723563946</v>
+        <v>1.514643729956152</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.5679060239730219</v>
+        <v>-0.2531241329413189</v>
       </c>
       <c r="G93" t="n">
-        <v>0.06364731933793619</v>
+        <v>-0.09419588235972397</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1593442646245782</v>
       </c>
       <c r="E94" t="n">
-        <v>2.064895256977271</v>
+        <v>1.53958521619041</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4006261295647158</v>
+        <v>-0.08887188477239018</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0219348442551365</v>
+        <v>-0.1737685735309826</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1736377606642008</v>
       </c>
       <c r="E95" t="n">
-        <v>1.977266123586847</v>
+        <v>1.499076724523511</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2368160738864294</v>
+        <v>-0.07261627889570094</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0319558409741071</v>
+        <v>-0.06197438292780082</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1723152703388252</v>
       </c>
       <c r="E96" t="n">
-        <v>1.936514883490602</v>
+        <v>1.387167258912424</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.06110768564614183</v>
+        <v>0.1217093280816443</v>
       </c>
       <c r="G96" t="n">
-        <v>0.001578741668670072</v>
+        <v>-0.1594939900123711</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1579318120526391</v>
       </c>
       <c r="E97" t="n">
-        <v>1.762066591368476</v>
+        <v>1.276746609673279</v>
       </c>
       <c r="F97" t="n">
-        <v>0.108542970432684</v>
+        <v>0.2291255080671285</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01482743860899139</v>
+        <v>-0.05912666328806414</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.133485525529416</v>
       </c>
       <c r="E98" t="n">
-        <v>1.600027135414789</v>
+        <v>1.11714195706117</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1869482734286468</v>
+        <v>0.3788683532568977</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0384887773489401</v>
+        <v>-0.07635387280281303</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1043135051463304</v>
       </c>
       <c r="E99" t="n">
-        <v>1.46616662464754</v>
+        <v>1.042783477755431</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2570123012494032</v>
+        <v>0.4545503604311805</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.06936357192660354</v>
+        <v>-0.0996674807508308</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.07139145245607278</v>
       </c>
       <c r="E100" t="n">
-        <v>1.283424021242317</v>
+        <v>1.01497841394384</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2489881848261058</v>
+        <v>0.3621424985384357</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.07838978802179805</v>
+        <v>-0.1371824817362503</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.03950380218174727</v>
       </c>
       <c r="E101" t="n">
-        <v>1.156523315317439</v>
+        <v>0.8820401032398338</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2761516120857573</v>
+        <v>0.3994214602219538</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1623831842581266</v>
+        <v>-0.296050960091524</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.003171795359892722</v>
       </c>
       <c r="E102" t="n">
-        <v>1.013618900755369</v>
+        <v>0.8883729096265089</v>
       </c>
       <c r="F102" t="n">
-        <v>0.242959728857128</v>
+        <v>0.429740007142423</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1612597103715567</v>
+        <v>-0.1845025675210717</v>
       </c>
     </row>
   </sheetData>
